--- a/test/check04/check04_test02_in.xlsx
+++ b/test/check04/check04_test02_in.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,29 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650"/>
   </bookViews>
   <sheets>
-    <sheet name="1. incomplete" sheetId="1" r:id="rId1"/>
-    <sheet name="2. duplicates" sheetId="2" r:id="rId2"/>
-    <sheet name="3. consent" sheetId="3" r:id="rId3"/>
-    <sheet name="4. no miss" sheetId="4" r:id="rId4"/>
-    <sheet name="5. follow up" sheetId="5" r:id="rId5"/>
-    <sheet name="6. skip" sheetId="6" r:id="rId6"/>
-    <sheet name="7. all miss" sheetId="7" r:id="rId7"/>
-    <sheet name="8. constraints" sheetId="8" r:id="rId8"/>
-    <sheet name="9. specify" sheetId="9" r:id="rId9"/>
-    <sheet name="10. dates" sheetId="10" r:id="rId10"/>
-    <sheet name="11. outliers" sheetId="11" r:id="rId11"/>
-    <sheet name="enumdb" sheetId="13" r:id="rId12"/>
-    <sheet name="researchdb" sheetId="14" r:id="rId13"/>
+    <sheet name="0. setup" sheetId="15" r:id="rId1"/>
+    <sheet name="1. incomplete" sheetId="1" r:id="rId2"/>
+    <sheet name="2. duplicates" sheetId="2" r:id="rId3"/>
+    <sheet name="3. consent" sheetId="3" r:id="rId4"/>
+    <sheet name="4. no miss" sheetId="4" r:id="rId5"/>
+    <sheet name="5. follow up" sheetId="5" r:id="rId6"/>
+    <sheet name="6. skip" sheetId="6" r:id="rId7"/>
+    <sheet name="7. all miss" sheetId="7" r:id="rId8"/>
+    <sheet name="8. constraints" sheetId="8" r:id="rId9"/>
+    <sheet name="9. specify" sheetId="9" r:id="rId10"/>
+    <sheet name="10. dates" sheetId="10" r:id="rId11"/>
+    <sheet name="11. outliers" sheetId="11" r:id="rId12"/>
+    <sheet name="enumdb" sheetId="13" r:id="rId13"/>
+    <sheet name="researchdb" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>variable</t>
   </si>
@@ -131,12 +132,84 @@
   <si>
     <t>lon</t>
   </si>
+  <si>
+    <t>High Frequency Checks</t>
+  </si>
+  <si>
+    <t>1. File Definitions</t>
+  </si>
+  <si>
+    <t>Stata Dataset</t>
+  </si>
+  <si>
+    <t>HFC Input File</t>
+  </si>
+  <si>
+    <t>HFC Output File</t>
+  </si>
+  <si>
+    <t>HFC Enumerator File</t>
+  </si>
+  <si>
+    <t>HFC Research File</t>
+  </si>
+  <si>
+    <t>Replacements File (opt.)</t>
+  </si>
+  <si>
+    <t>Master Tracking Dataset (opt.)</t>
+  </si>
+  <si>
+    <t>2. Important Variables</t>
+  </si>
+  <si>
+    <t>Submission Date</t>
+  </si>
+  <si>
+    <t>Survey ID</t>
+  </si>
+  <si>
+    <t>Enumerator ID</t>
+  </si>
+  <si>
+    <t>Form Version</t>
+  </si>
+  <si>
+    <t>Geographic Cluster</t>
+  </si>
+  <si>
+    <t>3. Survey Definitions</t>
+  </si>
+  <si>
+    <t>Target Sample Size</t>
+  </si>
+  <si>
+    <t>SurveyCTO Server Name</t>
+  </si>
+  <si>
+    <t>Missing Value (.d)</t>
+  </si>
+  <si>
+    <t>Missing Value (.r)</t>
+  </si>
+  <si>
+    <t>Missing Value (.n)</t>
+  </si>
+  <si>
+    <t>4. HFC Options</t>
+  </si>
+  <si>
+    <t>Use SD for Outliers</t>
+  </si>
+  <si>
+    <t>Use Label for Factors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -146,16 +219,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -163,11 +260,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -176,6 +449,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,28 +867,89 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1876211</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>339754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FE8BD1-3FDA-4867-BCC8-780229CDAAEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924086" y="0"/>
+          <a:ext cx="1505164" cy="720754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="47625"/>
-          <a:ext cx="3648075" cy="1362075"/>
+          <a:off x="5572125" y="47624"/>
+          <a:ext cx="3648075" cy="2047875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,17 +983,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 1</a:t>
+            <a:t>HFC Check # 9</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that all</a:t>
+            <a:t>Check specify</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> surveys are complete.</a:t>
+            <a:t> other variables for recodes or recategorizations.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -616,12 +1001,14 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>Often</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>It is an IPA best practice to terminate surveys with a field for the enumerator to enter the status of the interview. This check verifies that all surveys in memory are completed, and lists incomplete surveys in the output file.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            <a:t> categorical questions will include an other category with the option for the respondent to identify their own category in a separate text box. This check lists the non-missing values for these specify other variables in the output file to facilitate recodes (a user specifies a value that matches one of the original categories) or re-categorizations (if many similar other values are encountered).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -629,25 +1016,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="1514475"/>
+          <a:off x="5572125" y="2181225"/>
           <a:ext cx="3667125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -684,7 +1077,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
+            <a:t>specify_variable</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
@@ -694,7 +1087,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of the survey status variable. </a:t>
+            <a:t>This column specifies the names of the specify other variables.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -704,97 +1097,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="2181225"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>complete_value</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="2876550"/>
+          <a:off x="5572125" y="2867025"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -831,7 +1158,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>keep_variable</a:t>
+            <a:t>output_variable</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -864,25 +1191,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="3571875"/>
+          <a:off x="5572125" y="3571875"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -936,25 +1269,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11258550" y="314325"/>
+          <a:off x="8429625" y="695325"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -962,7 +1301,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1018,7 +1363,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1060,7 +1411,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1106,7 +1463,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1123,7 +1480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1248,7 +1611,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1320,7 +1689,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1401,7 +1776,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1482,7 +1863,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1557,7 +1944,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1629,7 +2022,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1717,7 +2116,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1789,7 +2194,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1802,7 +2213,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvPr id="13" name="TextBox 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1858,7 +2275,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvPr id="14" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1900,7 +2323,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvPr id="15" name="Rectangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1946,7 +2375,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1963,7 +2392,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2047,7 +2482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2122,7 +2563,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2194,7 +2641,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2282,7 +2735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2354,7 +2813,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2367,7 +2832,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2423,7 +2894,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2465,7 +2942,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2511,7 +2994,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2528,7 +3011,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2618,7 +3107,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2689,7 +3184,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2760,7 +3261,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2831,7 +3338,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2906,7 +3419,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2978,7 +3497,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2991,7 +3516,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3047,7 +3578,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3089,7 +3626,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3139,26 +3682,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6962775" y="47625"/>
-          <a:ext cx="3648075" cy="1476375"/>
+          <a:ext cx="3648075" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3192,23 +3741,26 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 2</a:t>
+            <a:t>HFC Check # 1</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that there are no duplicates.</a:t>
-          </a:r>
+            <a:t>Check that all</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> surveys are complete.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>Duplicate surveys can arise from a variety of data collection sources. Here we check that certain identifying variables are unique and output any duplicates to the output file. The program also accommodates variable combinations that should be unique.</a:t>
+            <a:t>It is an IPA best practice to terminate surveys with a field for the enumerator to enter the status of the interview. This check verifies that all surveys in memory are completed, and lists incomplete surveys in the output file.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3220,25 +3772,112 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="1600201"/>
+          <a:off x="6962775" y="1514475"/>
+          <a:ext cx="3667125" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of the survey status variable. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2181225"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3275,17 +3914,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>complete_value</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of the variables that will be checked for duplicates (e.g. id, GPS, etc).</a:t>
+            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -3295,105 +3931,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="2276474"/>
-          <a:ext cx="3667125" cy="990601"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>other_unique</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>Sometimes a combination of variables should be unique (e.g. multiple interviews with same respondent). This column specifies a space separated list of additional variables, which in combination with </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>, should be unique</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="3343275"/>
+          <a:off x="6962775" y="2876550"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3430,7 +3992,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep_variable</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -3463,25 +4025,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="4029075"/>
+          <a:off x="6962775" y="3571875"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3535,25 +4103,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Group 3"/>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9810750" y="323850"/>
+          <a:off x="11258550" y="314325"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -3561,7 +4135,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3617,7 +4197,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Rectangle 1"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3659,7 +4245,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3717,18 +4309,24 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6962775" y="47625"/>
-          <a:ext cx="3648075" cy="1466850"/>
+          <a:ext cx="3648075" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3762,26 +4360,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 3</a:t>
+            <a:t>HFC Check # 2</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that all</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> surveys have consent.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>Check that there are no duplicates.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>It is an IRB requirement that all human subjects demonstrate their consent to participate in IPA research. In surveys this generally takes the form of a consent statement and/or signature. This check verifies that consent was affirmed in all surveys in memory.</a:t>
+            <a:t>Duplicate surveys can arise from a variety of data collection sources. Here we check that certain identifying variables are unique and output any duplicates to the output file. The program also accommodates variable combinations that should be unique.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3794,99 +4389,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="1590675"/>
-          <a:ext cx="3667125" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of the consent variable or variables (Note: supports multiple consent variables).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6972300" y="2276475"/>
+          <a:off x="6962775" y="1600201"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3923,14 +4449,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>consent_value</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the value of the consent variable that corresponds with consent.</a:t>
+            <a:t>This column specifies the name of the variables that will be checked for duplicates (e.g. id, GPS, etc).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -3941,24 +4470,116 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="2971800"/>
+          <a:off x="6962775" y="2276474"/>
+          <a:ext cx="3667125" cy="990601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>other_unique</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>Sometimes a combination of variables should be unique (e.g. multiple interviews with same respondent). This column specifies a space separated list of additional variables, which in combination with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>, should be unique</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="3343275"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4029,24 +4650,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="3667125"/>
+          <a:off x="6962775" y="4029075"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4103,22 +4730,28 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9810750" y="304800"/>
+          <a:off x="9810750" y="323850"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -4126,7 +4759,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4182,7 +4821,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvPr id="2" name="Rectangle 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4224,7 +4869,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4274,26 +4925,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581650" y="47625"/>
-          <a:ext cx="3648075" cy="1485900"/>
+          <a:off x="6962775" y="47625"/>
+          <a:ext cx="3648075" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4327,17 +4984,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 4</a:t>
+            <a:t>HFC Check # 3</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that certain variables have no missing values</a:t>
+            <a:t>Check that all</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>.</a:t>
+            <a:t> surveys have consent.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4346,8 +5003,10 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>This check verifies key administrative and research variables (e.g. id, GPS, eligibility, filter questions) have no missing values. If a variable is only relevant to a subset of participants it should not be included unless the sample has been restricted to the same subset.</a:t>
-          </a:r>
+            <a:t>It is an IRB requirement that all human subjects demonstrate their consent to participate in IPA research. In surveys this generally takes the form of a consent statement and/or signature. This check verifies that consent was affirmed in all surveys in memory.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
@@ -4356,26 +5015,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581650" y="1609725"/>
-          <a:ext cx="3667125" cy="600075"/>
+          <a:off x="6972300" y="1590675"/>
+          <a:ext cx="3667125" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4421,7 +5086,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the names of the variables to check for missing values. </a:t>
+            <a:t>This column specifies the name of the consent variable or variables (Note: supports multiple consent variables).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -4431,25 +5096,109 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591175" y="2295525"/>
+          <a:off x="6972300" y="2276475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>consent_value</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the value of the consent variable that corresponds with consent.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="2971800"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4486,7 +5235,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>keep_variable</a:t>
+            <a:t>output_variable</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -4519,25 +5268,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591175" y="3000375"/>
+          <a:off x="6972300" y="3667125"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4591,25 +5346,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8439150" y="304800"/>
+          <a:off x="9810750" y="304800"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -4617,7 +5378,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvPr id="13" name="TextBox 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4673,7 +5440,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvPr id="14" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4715,7 +5488,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="15" name="Rectangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4766,25 +5545,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
+      <xdr:colOff>942975</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="47625"/>
-          <a:ext cx="3648075" cy="1638300"/>
+          <a:off x="5581650" y="47625"/>
+          <a:ext cx="3648075" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4818,19 +5603,18 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 5</a:t>
+            <a:t>HFC Check # 4</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that follow up record</a:t>
+            <a:t>Check that certain variables have no missing values</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>s match master</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            <a:t>.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
@@ -4838,23 +5622,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>This check applies to follow up or post-census surveys. It checks relevant identification variables against a master tracking list to ensure the data are matching. The name of the master list is specified in the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
-            <a:t>master_check.do </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>file. Note, that you must have </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
-            <a:t>cfout</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t> installed for this check to work properly.</a:t>
+            <a:t>This check verifies key administrative and research variables (e.g. id, GPS, eligibility, filter questions) have no missing values. If a variable is only relevant to a subset of participants it should not be included unless the sample has been restricted to the same subset.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
@@ -4865,25 +5633,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="1790701"/>
-          <a:ext cx="3667125" cy="609600"/>
+          <a:off x="5581650" y="1609725"/>
+          <a:ext cx="3667125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4929,7 +5703,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the names of the variables to check for matches in the master and follow up.</a:t>
+            <a:t>This column specifies the names of the variables to check for missing values. </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -4940,24 +5714,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581650" y="2476500"/>
+          <a:off x="5591175" y="2295525"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5028,24 +5808,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581650" y="3181350"/>
+          <a:off x="5591175" y="3000375"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5100,24 +5886,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8429625" y="495300"/>
+          <a:off x="8439150" y="304800"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -5125,7 +5917,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5181,7 +5979,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5223,7 +6027,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5273,26 +6083,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="47624"/>
-          <a:ext cx="3648075" cy="1495425"/>
+          <a:off x="5572125" y="47625"/>
+          <a:ext cx="3648075" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5326,18 +6142,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 6</a:t>
+            <a:t>HFC Check # 5</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check skip</a:t>
+            <a:t>Check that follow up record</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> patterns and survey logic.</a:t>
-          </a:r>
+            <a:t>s match master</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
@@ -5345,8 +6162,25 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>This check verifies certain skip patterns and survey logic are obeyed. If the survey is properly programmed and tested using SurveyCTO, there should be no violations. However, we include these checks to help identify programming errors or to check for logic added after the survey start.</a:t>
-          </a:r>
+            <a:t>This check applies to follow up or post-census surveys. It checks relevant identification variables against a master tracking list to ensure the data are matching. The name of the master list is specified in the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>master_check.do </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>file. Note, that you must have </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>cfout</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> installed for this check to work properly.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5354,100 +6188,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="1676400"/>
-          <a:ext cx="3667125" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of the survey status variable. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="2343150"/>
+          <a:off x="5572125" y="1790701"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5484,14 +6249,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>assert</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies a condition which should evaluate to true (e.g. sex == 1).</a:t>
+            <a:t>This column specifies the names of the variables to check for matches in the master and follow up.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -5501,25 +6269,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="3733800"/>
+          <a:off x="5581650" y="2476500"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5556,7 +6330,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep_variable</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -5589,25 +6363,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="4429125"/>
+          <a:off x="5581650" y="3181350"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5661,96 +6441,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="3038475"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>if_condition</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies a condition under which the assertion should be true (e.g. pregnant == 1)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11201400" y="381000"/>
+          <a:off x="8429625" y="495300"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -5758,7 +6473,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5814,7 +6535,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5856,7 +6583,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5906,26 +6639,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="47624"/>
-          <a:ext cx="3648075" cy="2009776"/>
+          <a:off x="6962775" y="47624"/>
+          <a:ext cx="3648075" cy="1495425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5959,17 +6698,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 7</a:t>
+            <a:t>HFC Check # 6</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check for</a:t>
+            <a:t>Check skip</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> variables that contain only missing values.</a:t>
+            <a:t> patterns and survey logic.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5978,11 +6717,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>This check identifies variables that contain only missing values. It is different from check # 4 which checks that variables have no missing values. This check can be useful for identifying improperly programmed or overly restrictive relevance rules. At the very beginning of data collection, there may be many violations as the sample is to small to encounter all relevance cases. During this time you may want to turn it off.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            <a:t>This check verifies certain skip patterns and survey logic are obeyed. If the survey is properly programmed and tested using SurveyCTO, there should be no violations. However, we include these checks to help identify programming errors or to check for logic added after the survey start.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5990,25 +6726,112 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="1676400"/>
+          <a:ext cx="3667125" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of the survey status variable. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="2152650"/>
+          <a:off x="6962775" y="2343150"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6045,17 +6868,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>assert</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the names of the variables to flag if they contain only missing values</a:t>
+            <a:t>This column specifies a condition which should evaluate to true (e.g. sex == 1).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -6065,25 +6885,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="2857500"/>
+          <a:off x="6962775" y="3733800"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6153,25 +6979,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="3562350"/>
+          <a:off x="6962775" y="4429125"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6225,25 +7057,108 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="3038475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>if_condition</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies a condition under which the assertion should be true (e.g. pregnant == 1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8420100" y="600075"/>
+          <a:off x="11201400" y="381000"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -6251,7 +7166,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6307,7 +7228,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6349,7 +7276,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6399,26 +7332,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11096625" y="47625"/>
-          <a:ext cx="3648075" cy="1857375"/>
+          <a:off x="4200525" y="47624"/>
+          <a:ext cx="3648075" cy="2009776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6452,25 +7391,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check #</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>8</a:t>
+            <a:t>HFC Check # 7</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check hard/soft constraints for continuous variables</a:t>
+            <a:t>Check for</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>.</a:t>
+            <a:t> variables that contain only missing values.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6479,24 +7410,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>This check verifies that continuous variables fall within soft and hard constraints. A </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
-            <a:t>soft constraint </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>is a range that most values should fall within, but it is not logically impossible to encouter values outside this range (e.g. # of children 0 - 10). A </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
-            <a:t>hard constraint </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>is a range that all values should fall within and anything outside is highly dubious (e.g. age 0 - 130). Hard constraints should also be programmed in SurveyCTO.</a:t>
-          </a:r>
+            <a:t>This check identifies variables that contain only missing values. It is different from check # 4 which checks that variables have no missing values. This check can be useful for identifying improperly programmed or overly restrictive relevance rules. At the very beginning of data collection, there may be many violations as the sample is to small to encounter all relevance cases. During this time you may want to turn it off.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6504,100 +7422,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11096625" y="1990725"/>
-          <a:ext cx="3667125" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of the survey status variable. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11096625" y="2667000"/>
+          <a:off x="4200525" y="2152650"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6634,14 +7483,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>soft_min</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
+            <a:t>This column specifies the names of the variables to flag if they contain only missing values</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -6651,25 +7503,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11096625" y="4057650"/>
+          <a:off x="4200525" y="2857500"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6706,7 +7564,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>hard_min</a:t>
+            <a:t>output_variable</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -6739,25 +7597,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11096625" y="4752975"/>
+          <a:off x="4200525" y="3562350"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6794,7 +7658,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>hard_max</a:t>
+            <a:t>notes</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -6811,256 +7675,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11096625" y="3362325"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>soft_max</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11096625" y="5448300"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> are displayed.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11096625" y="6143625"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13954125" y="581025"/>
+          <a:off x="8420100" y="600075"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -7068,7 +7707,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10"/>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7124,7 +7769,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7166,7 +7817,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7216,26 +7873,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="47624"/>
-          <a:ext cx="3648075" cy="2047875"/>
+          <a:off x="11096625" y="47625"/>
+          <a:ext cx="3648075" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7269,17 +7932,25 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 9</a:t>
+            <a:t>HFC Check #</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>8</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check specify</a:t>
+            <a:t>Check hard/soft constraints for continuous variables</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> other variables for recodes or recategorizations.</a:t>
+            <a:t>.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7287,14 +7958,25 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
-            <a:t>Often</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t> categorical questions will include an other category with the option for the respondent to identify their own category in a separate text box. This check lists the non-missing values for these specify other variables in the output file to facilitate recodes (a user specifies a value that matches one of the original categories) or re-categorizations (if many similar other values are encountered).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This check verifies that continuous variables fall within soft and hard constraints. A </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>soft constraint </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>is a range that most values should fall within, but it is not logically impossible to encouter values outside this range (e.g. # of children 0 - 10). A </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>hard constraint </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>is a range that all values should fall within and anything outside is highly dubious (e.g. age 0 - 130). Hard constraints should also be programmed in SurveyCTO.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7302,25 +7984,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="2181225"/>
+          <a:off x="11096625" y="1990725"/>
           <a:ext cx="3667125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7357,7 +8045,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>specify_variable</a:t>
+            <a:t>variable</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
@@ -7367,7 +8055,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the names of the specify other variables.</a:t>
+            <a:t>This column specifies the name of the survey status variable. </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -7377,25 +8065,109 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="2867025"/>
+          <a:off x="11096625" y="2667000"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>soft_min</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="4057650"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7432,7 +8204,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>hard_min</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -7465,25 +8237,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="3571875"/>
+          <a:off x="11096625" y="4752975"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7520,7 +8298,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
+            <a:t>hard_max</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -7537,25 +8315,280 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="3362325"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>soft_max</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="5448300"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>output_variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> are displayed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="6143625"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>notes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8429625" y="695325"/>
+          <a:off x="13954125" y="581025"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -7563,7 +8596,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7619,7 +8658,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7661,7 +8706,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7783,6 +8834,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7818,6 +8886,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7970,46 +9055,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="28"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="23" priority="2">
-      <formula>$A1="variable"</formula>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
+  <conditionalFormatting sqref="A1:C1048576">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8018,7 +9369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -8085,7 +9436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -8143,7 +9494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
@@ -8392,7 +9743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8413,6 +9764,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1048576">
+    <cfRule type="expression" dxfId="22" priority="1">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -8458,7 +9859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -8501,11 +9902,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -8582,7 +9983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -8631,7 +10032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8697,7 +10098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C602"/>
   <sheetViews>
@@ -9337,7 +10738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
@@ -9849,91 +11250,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>$A1="specify_variable"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/test/check04/check04_test02_in.xlsx
+++ b/test/check04/check04_test02_in.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\test\check04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="0. setup" sheetId="15" r:id="rId1"/>
@@ -25,14 +25,16 @@
     <sheet name="10. dates" sheetId="10" r:id="rId11"/>
     <sheet name="11. outliers" sheetId="11" r:id="rId12"/>
     <sheet name="enumdb" sheetId="13" r:id="rId13"/>
-    <sheet name="researchdb" sheetId="14" r:id="rId14"/>
+    <sheet name="research oneway" sheetId="16" r:id="rId14"/>
+    <sheet name="research twoway" sheetId="17" r:id="rId15"/>
+    <sheet name="researchdb" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>variable</t>
   </si>
@@ -203,6 +205,12 @@
   </si>
   <si>
     <t>Use Label for Factors</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>by</t>
   </si>
 </sst>
 </file>
@@ -450,24 +458,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -501,11 +491,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3673,6 +3739,1133 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6E45F4-D29E-4ECA-936D-44F3D2AE7F17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: One-Way Summary</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display one-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of one-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA98E7FB-35DB-47E3-BD9A-25E862C86F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BE0106-2FB7-46EA-BD4D-AEE5EF71C73D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B686C1D-6EC7-42F5-BB41-88EAE217FDA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8439150" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3C0F23-B307-410E-8C5B-ABC4B41E50AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266EF40C-0F7A-46B3-B062-CF7CFB1DD221}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5272B502-238F-4507-B33A-80DEDD6AE0E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299FAD1F-7AFE-4A30-A35D-8F9D23F582D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="3371850"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A71153-7B34-4DDC-AE2C-F911A0A5382D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: Two-Way Summaries</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display two-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of two-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B943FB38-0D38-4541-9A16-6A5A378B0B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C17B267-9E21-4F80-BE6E-50755D9503BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3235569A-8B9D-4C28-AC08-81998E17695D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="3352800"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>by</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the variable </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7FF371-C79E-4809-8390-2299DF6071E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9820275" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC680AE-6BC3-4699-B1AB-0F9495EE7508}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCDF566-5DFE-4BEE-B261-C260CFD0F49F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FC2B97-76EA-444C-8028-99F90CC2CD7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60325E3-BACE-457D-8FEA-78B578E60A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="4048125"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9055,223 +10248,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="17"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="22"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9284,6 +10478,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9355,12 +10550,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9371,6 +10566,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9422,12 +10618,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$A1="startdate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9438,6 +10634,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9480,12 +10677,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9496,6 +10693,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9729,12 +10927,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$A1="dkrf_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"", $E1&lt;&gt;"", $F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9745,6 +10943,387 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $C1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:D89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A$1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:D1048576">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9765,6 +11344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9799,12 +11379,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9815,6 +11395,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9845,12 +11426,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9861,6 +11442,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9888,12 +11470,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9904,6 +11486,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9969,12 +11552,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9985,6 +11568,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10018,12 +11602,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10034,6 +11618,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10084,12 +11669,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10100,6 +11685,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:C602"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -10724,12 +12310,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10740,6 +12326,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11238,12 +12825,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
